--- a/code/tables/intercorr_gap.xlsx
+++ b/code/tables/intercorr_gap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippe/Desktop/base2/code/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippe/Desktop/projects/base2/code/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB2E125-0927-ED49-8AFC-EBE61E1FFC4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9BDD0C-072E-D243-BB5F-ABC4DEFCDED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="620" windowWidth="28040" windowHeight="16140" xr2:uid="{FFB53F13-BE38-F341-8A27-3D33575CD179}"/>
   </bookViews>
